--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayuri\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayuri\Capg\cucumber\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE5E619F-CE4F-4D21-B311-66B41EE85A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4A202E-5202-4E32-84C8-94A2CD5BD247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5724789D-7769-4DA0-B219-8E7A83FF5C2F}"/>
   </bookViews>
@@ -30,22 +30,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Scenarios</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+  <si>
+    <t>Verify that the user is able to search for the product</t>
+  </si>
+  <si>
+    <t>scenarios</t>
+  </si>
+  <si>
+    <t>Input1</t>
+  </si>
+  <si>
+    <t>Input2</t>
+  </si>
+  <si>
+    <t>mobiles</t>
+  </si>
+  <si>
+    <t>Verify that user is able to search a product according to her price range</t>
+  </si>
+  <si>
+    <t>Verify that the user is able Select from the dropdown feature after searching for a product</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to select different features from different category for a searched product</t>
+  </si>
+  <si>
+    <t>"20000"</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>"mobiles"</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>"25000"</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to see the new releases for books section.</t>
+  </si>
+  <si>
+    <t>Bestsellers in Books</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,8 +114,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,20 +434,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91283165-708C-4F79-95CC-02A9DAD96215}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="96.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>